--- a/Original Excel Files/T.xlsx
+++ b/Original Excel Files/T.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3131FDA-5E76-45A5-9D64-B5A9D44A132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="30225" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,8 +661,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,12 +708,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -750,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,14 +767,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,6 +789,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -838,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -871,9 +873,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,6 +925,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1081,46 +1117,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:G85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>197</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>199</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>200</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1183,10 +1233,10 @@
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F11" s="6">
         <v>1964</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1207,21 +1257,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1987</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,931 +1346,957 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2007</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2007</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1990</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
+      <c r="A28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1987</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1986</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>138</v>
+      <c r="A30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>69</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1990</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1988</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1990</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1988</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1987</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2008</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
+      <c r="A37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1990</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>66</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1988</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1987</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1988</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>145</v>
+      <c r="A41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1987</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1980</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1988</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1959</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2008</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2005</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1986</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1984</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1988</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2006</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1987</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1955</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1955</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" t="s">
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s">
         <v>3</v>
       </c>
-      <c r="G60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1980</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1941</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" t="s">
+        <v>105</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1959</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2005</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="6">
-        <v>1984</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2006</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1955</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" t="s">
-        <v>124</v>
-      </c>
-      <c r="G82" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1955</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" t="s">
-        <v>208</v>
-      </c>
-      <c r="D85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E85" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" t="s">
-        <v>211</v>
-      </c>
-      <c r="G85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1970</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="4"/>
       <c r="D87" s="6"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" s="6">
-        <v>2010</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>176</v>
-      </c>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="6">
-        <v>1941</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" t="s">
-        <v>105</v>
-      </c>
-      <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s">
-        <v>107</v>
-      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1970</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I100">
+    <sortCondition ref="A1:A100"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" display="http://unistar.uni.edu/search~S1?/cTD794.5+.R42+1990/ctd++794.5+r42+1990/-3,-1,,E/browse"/>
+    <hyperlink ref="A27" r:id="rId1" display="http://unistar.uni.edu/search~S1?/cTD794.5+.R42+1990/ctd++794.5+r42+1990/-3,-1,,E/browse" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2203,7 +2308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
